--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="764" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="764" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -1531,7 +1531,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="E1" sqref="E1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2730,7 +2730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -3531,7 +3531,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>50</v>
@@ -3620,7 +3620,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>143</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>33</v>
@@ -3663,10 +3663,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3675,11 +3675,9 @@
     <col min="2" max="2" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -3690,9 +3688,8 @@
         <v>2016</v>
       </c>
       <c r="D1" s="18"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="13" t="s">
@@ -3701,9 +3698,8 @@
       <c r="D2" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3718,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3731,7 +3727,7 @@
       </c>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3744,7 +3740,7 @@
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3757,7 +3753,7 @@
       </c>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4">
       <c r="A7" s="15">
         <v>5</v>
       </c>
@@ -3772,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4">
       <c r="A8" s="15"/>
       <c r="B8" s="19"/>
       <c r="C8" s="14">
@@ -3782,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4">
       <c r="A9" s="15"/>
       <c r="B9" s="19"/>
       <c r="C9" s="14">
@@ -3792,7 +3788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4">
       <c r="A10" s="15"/>
       <c r="B10" s="19"/>
       <c r="C10" s="14">
@@ -3802,7 +3798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:4">
       <c r="A11" s="15"/>
       <c r="B11" s="19"/>
       <c r="C11" s="14">
@@ -3812,7 +3808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:4">
       <c r="A12" s="15"/>
       <c r="B12" s="19"/>
       <c r="C12" s="14">
@@ -3822,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:4">
       <c r="A13" s="15"/>
       <c r="B13" s="19"/>
       <c r="C13" s="14">
@@ -3832,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:4">
       <c r="A14" s="15"/>
       <c r="B14" s="19"/>
       <c r="C14" s="14">
@@ -3842,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>6</v>
       </c>
@@ -3855,7 +3851,7 @@
       </c>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>7</v>
       </c>
@@ -4832,10 +4828,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="E1" sqref="E1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4844,11 +4840,9 @@
     <col min="2" max="2" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4860,7 +4854,7 @@
       </c>
       <c r="D1" s="18"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:4">
       <c r="A2" s="15"/>
       <c r="B2" s="4" t="s">
         <v>82</v>
@@ -4871,10 +4865,8 @@
       <c r="D2" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4888,10 +4880,8 @@
       <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -4902,10 +4892,8 @@
       <c r="C4" s="5">
         <v>42370</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -4916,10 +4904,8 @@
       <c r="C5" s="5">
         <v>42394</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -4930,10 +4916,8 @@
       <c r="C6" s="5">
         <v>42404</v>
       </c>
-      <c r="E6"/>
-      <c r="F6"/>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1">
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -4946,7 +4930,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:4">
       <c r="A8" s="15">
         <v>6</v>
       </c>
@@ -4960,10 +4944,8 @@
       <c r="D8" s="7">
         <v>1</v>
       </c>
-      <c r="E8"/>
-      <c r="F8"/>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="5">
@@ -4972,10 +4954,8 @@
       <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9"/>
-      <c r="F9"/>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="5">
@@ -4984,10 +4964,8 @@
       <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="E10"/>
-      <c r="F10"/>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="5">
@@ -4996,10 +4974,8 @@
       <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11"/>
-      <c r="F11"/>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -5008,10 +4984,8 @@
       <c r="D12" s="7">
         <v>1</v>
       </c>
-      <c r="E12"/>
-      <c r="F12"/>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -5020,10 +4994,8 @@
       <c r="D13" s="7">
         <v>0</v>
       </c>
-      <c r="E13"/>
-      <c r="F13"/>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="4">
         <v>7</v>
       </c>
@@ -5034,10 +5006,8 @@
       <c r="C14" s="5">
         <v>42408</v>
       </c>
-      <c r="E14"/>
-      <c r="F14"/>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="4">
         <v>8</v>
       </c>
@@ -5048,10 +5018,8 @@
       <c r="C15" s="5">
         <v>42414</v>
       </c>
-      <c r="E15"/>
-      <c r="F15"/>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="4">
         <v>9</v>
       </c>
@@ -5062,10 +5030,8 @@
       <c r="C16" s="5">
         <v>42422</v>
       </c>
-      <c r="E16"/>
-      <c r="F16"/>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="15">
         <v>10</v>
       </c>
@@ -5076,10 +5042,8 @@
       <c r="C17" s="5">
         <v>42428</v>
       </c>
-      <c r="E17"/>
-      <c r="F17"/>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="5">
@@ -5088,10 +5052,8 @@
       <c r="D18" s="4">
         <v>1</v>
       </c>
-      <c r="E18"/>
-      <c r="F18"/>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="4">
         <v>11</v>
       </c>
@@ -5102,10 +5064,8 @@
       <c r="C19" s="5">
         <v>42434</v>
       </c>
-      <c r="E19"/>
-      <c r="F19"/>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="4">
         <v>12</v>
       </c>
@@ -5116,10 +5076,8 @@
       <c r="C20" s="5">
         <v>42437</v>
       </c>
-      <c r="E20"/>
-      <c r="F20"/>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="4">
         <v>13</v>
       </c>
@@ -5130,10 +5088,8 @@
       <c r="C21" s="5">
         <v>42441</v>
       </c>
-      <c r="E21"/>
-      <c r="F21"/>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="4">
         <v>14</v>
       </c>
@@ -5144,10 +5100,8 @@
       <c r="C22" s="5">
         <v>42441</v>
       </c>
-      <c r="E22"/>
-      <c r="F22"/>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="4">
         <v>15</v>
       </c>
@@ -5158,10 +5112,8 @@
       <c r="C23" s="5">
         <v>42443</v>
       </c>
-      <c r="E23"/>
-      <c r="F23"/>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="4">
         <v>16</v>
       </c>
@@ -5172,10 +5124,8 @@
       <c r="C24" s="5">
         <v>42454</v>
       </c>
-      <c r="E24"/>
-      <c r="F24"/>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="4">
         <v>17</v>
       </c>
@@ -5186,10 +5136,8 @@
       <c r="C25" s="5">
         <v>42458</v>
       </c>
-      <c r="E25"/>
-      <c r="F25"/>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="4">
         <v>18</v>
       </c>
@@ -5200,10 +5148,8 @@
       <c r="C26" s="5">
         <v>42458</v>
       </c>
-      <c r="E26"/>
-      <c r="F26"/>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="4">
         <v>19</v>
       </c>
@@ -5214,10 +5160,8 @@
       <c r="C27" s="5">
         <v>42461</v>
       </c>
-      <c r="E27"/>
-      <c r="F27"/>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="4">
         <v>20</v>
       </c>
@@ -5228,10 +5172,8 @@
       <c r="C28" s="5">
         <v>42461</v>
       </c>
-      <c r="E28"/>
-      <c r="F28"/>
-    </row>
-    <row r="29" spans="1:6">
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="4">
         <v>21</v>
       </c>
@@ -5245,10 +5187,8 @@
       <c r="D29" s="4">
         <v>1</v>
       </c>
-      <c r="E29"/>
-      <c r="F29"/>
-    </row>
-    <row r="30" spans="1:6">
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="15">
         <v>22</v>
       </c>
@@ -5259,10 +5199,8 @@
       <c r="C30" s="5">
         <v>42464</v>
       </c>
-      <c r="E30"/>
-      <c r="F30"/>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="5">
@@ -5271,10 +5209,8 @@
       <c r="D31" s="4">
         <v>1</v>
       </c>
-      <c r="E31"/>
-      <c r="F31"/>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="4">
         <v>23</v>
       </c>
@@ -5285,10 +5221,8 @@
       <c r="C32" s="5">
         <v>42489</v>
       </c>
-      <c r="E32"/>
-      <c r="F32"/>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="4">
         <v>24</v>
       </c>
@@ -5299,10 +5233,8 @@
       <c r="C33" s="5">
         <v>42491</v>
       </c>
-      <c r="E33"/>
-      <c r="F33"/>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -5313,10 +5245,8 @@
       <c r="C34" s="5">
         <v>42498</v>
       </c>
-      <c r="E34"/>
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="4">
         <v>26</v>
       </c>
@@ -5327,10 +5257,8 @@
       <c r="C35" s="5">
         <v>42504</v>
       </c>
-      <c r="E35"/>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="1:6">
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -5344,10 +5272,8 @@
       <c r="D36" s="4">
         <v>1</v>
       </c>
-      <c r="E36"/>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="1:6">
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="5">
@@ -5356,10 +5282,8 @@
       <c r="D37" s="4">
         <v>1</v>
       </c>
-      <c r="E37"/>
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="1:6">
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="5">
@@ -5368,10 +5292,8 @@
       <c r="D38" s="4">
         <v>0</v>
       </c>
-      <c r="E38"/>
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="4">
         <v>28</v>
       </c>
@@ -5382,10 +5304,8 @@
       <c r="C39" s="5">
         <v>42558</v>
       </c>
-      <c r="E39"/>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="4">
         <v>29</v>
       </c>
@@ -5396,10 +5316,8 @@
       <c r="C40" s="5">
         <v>42566</v>
       </c>
-      <c r="E40"/>
-      <c r="F40"/>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="4">
         <v>30</v>
       </c>
@@ -5410,10 +5328,8 @@
       <c r="C41" s="5">
         <v>42590</v>
       </c>
-      <c r="E41"/>
-      <c r="F41"/>
-    </row>
-    <row r="42" spans="1:6">
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="4">
         <v>31</v>
       </c>
@@ -5424,10 +5340,8 @@
       <c r="C42" s="5">
         <v>42591</v>
       </c>
-      <c r="E42"/>
-      <c r="F42"/>
-    </row>
-    <row r="43" spans="1:6">
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="4">
         <v>32</v>
       </c>
@@ -5438,10 +5352,8 @@
       <c r="C43" s="5">
         <v>42596</v>
       </c>
-      <c r="E43"/>
-      <c r="F43"/>
-    </row>
-    <row r="44" spans="1:6">
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="4">
         <v>33</v>
       </c>
@@ -5452,10 +5364,8 @@
       <c r="C44" s="5">
         <v>42599</v>
       </c>
-      <c r="E44"/>
-      <c r="F44"/>
-    </row>
-    <row r="45" spans="1:6">
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="4">
         <v>34</v>
       </c>
@@ -5466,10 +5376,8 @@
       <c r="C45" s="5">
         <v>42615</v>
       </c>
-      <c r="E45"/>
-      <c r="F45"/>
-    </row>
-    <row r="46" spans="1:6">
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="4">
         <v>35</v>
       </c>
@@ -5480,10 +5388,8 @@
       <c r="C46" s="5">
         <v>42616</v>
       </c>
-      <c r="E46"/>
-      <c r="F46"/>
-    </row>
-    <row r="47" spans="1:6">
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="15">
         <v>36</v>
       </c>
@@ -5497,10 +5403,8 @@
       <c r="D47" s="4">
         <v>1</v>
       </c>
-      <c r="E47"/>
-      <c r="F47"/>
-    </row>
-    <row r="48" spans="1:6">
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="5">
@@ -5509,10 +5413,8 @@
       <c r="D48" s="4">
         <v>1</v>
       </c>
-      <c r="E48"/>
-      <c r="F48"/>
-    </row>
-    <row r="49" spans="1:6">
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="5">
@@ -5521,10 +5423,8 @@
       <c r="D49" s="4">
         <v>0</v>
       </c>
-      <c r="E49"/>
-      <c r="F49"/>
-    </row>
-    <row r="50" spans="1:6">
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="4">
         <v>37</v>
       </c>
@@ -5535,10 +5435,8 @@
       <c r="C50" s="5">
         <v>42641</v>
       </c>
-      <c r="E50"/>
-      <c r="F50"/>
-    </row>
-    <row r="51" spans="1:6">
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="4">
         <v>38</v>
       </c>
@@ -5549,10 +5447,8 @@
       <c r="C51" s="5">
         <v>42641</v>
       </c>
-      <c r="E51"/>
-      <c r="F51"/>
-    </row>
-    <row r="52" spans="1:6">
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="4">
         <v>39</v>
       </c>
@@ -5566,10 +5462,8 @@
       <c r="D52" s="4">
         <v>1</v>
       </c>
-      <c r="E52"/>
-      <c r="F52"/>
-    </row>
-    <row r="53" spans="1:6">
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="4">
         <v>40</v>
       </c>
@@ -5580,10 +5474,8 @@
       <c r="C53" s="5">
         <v>42652</v>
       </c>
-      <c r="E53"/>
-      <c r="F53"/>
-    </row>
-    <row r="54" spans="1:6">
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="4">
         <v>41</v>
       </c>
@@ -5594,10 +5486,8 @@
       <c r="C54" s="5">
         <v>42664</v>
       </c>
-      <c r="E54"/>
-      <c r="F54"/>
-    </row>
-    <row r="55" spans="1:6">
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="4">
         <v>42</v>
       </c>
@@ -5608,10 +5498,8 @@
       <c r="C55" s="5">
         <v>42667</v>
       </c>
-      <c r="E55"/>
-      <c r="F55"/>
-    </row>
-    <row r="56" spans="1:6">
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="4">
         <v>43</v>
       </c>
@@ -5622,10 +5510,8 @@
       <c r="C56" s="5">
         <v>42668</v>
       </c>
-      <c r="E56"/>
-      <c r="F56"/>
-    </row>
-    <row r="57" spans="1:6">
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="4">
         <v>44</v>
       </c>
@@ -5636,10 +5522,8 @@
       <c r="C57" s="5">
         <v>42686</v>
       </c>
-      <c r="E57"/>
-      <c r="F57"/>
-    </row>
-    <row r="58" spans="1:6">
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="4">
         <v>45</v>
       </c>
@@ -5650,10 +5534,8 @@
       <c r="C58" s="5">
         <v>42686</v>
       </c>
-      <c r="E58"/>
-      <c r="F58"/>
-    </row>
-    <row r="59" spans="1:6">
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="4">
         <v>46</v>
       </c>
@@ -5664,10 +5546,8 @@
       <c r="C59" s="5">
         <v>42716</v>
       </c>
-      <c r="E59"/>
-      <c r="F59"/>
-    </row>
-    <row r="60" spans="1:6" s="3" customFormat="1">
+    </row>
+    <row r="60" spans="1:4" s="3" customFormat="1">
       <c r="A60" s="4">
         <v>47</v>
       </c>
@@ -5680,7 +5560,7 @@
       </c>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:4">
       <c r="A61" s="4">
         <v>48</v>
       </c>
@@ -5691,10 +5571,8 @@
       <c r="C61" s="5">
         <v>42728</v>
       </c>
-      <c r="E61"/>
-      <c r="F61"/>
-    </row>
-    <row r="62" spans="1:6" s="3" customFormat="1">
+    </row>
+    <row r="62" spans="1:4" s="3" customFormat="1">
       <c r="A62" s="4">
         <v>49</v>
       </c>

--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -4,27 +4,28 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="764" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="764" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
-    <sheet name="SolarTerm" sheetId="1" r:id="rId2"/>
-    <sheet name="Region" sheetId="19" r:id="rId3"/>
-    <sheet name="LunarFestival" sheetId="11" r:id="rId4"/>
-    <sheet name="InternationalFestival" sheetId="13" r:id="rId5"/>
-    <sheet name="ChinaFestival" sheetId="16" r:id="rId6"/>
-    <sheet name="ChinaHoliday" sheetId="2" r:id="rId7"/>
-    <sheet name="TaiwanFestival" sheetId="17" r:id="rId8"/>
-    <sheet name="TaiwanHoliday" sheetId="9" r:id="rId9"/>
-    <sheet name="HongKongFestival" sheetId="18" r:id="rId10"/>
-    <sheet name="HongKongHoliday" sheetId="10" r:id="rId11"/>
+    <sheet name="Constellation" sheetId="20" r:id="rId2"/>
+    <sheet name="SolarTerm" sheetId="1" r:id="rId3"/>
+    <sheet name="Region" sheetId="19" r:id="rId4"/>
+    <sheet name="LunarFestival" sheetId="11" r:id="rId5"/>
+    <sheet name="InternationalFestival" sheetId="13" r:id="rId6"/>
+    <sheet name="ChinaFestival" sheetId="16" r:id="rId7"/>
+    <sheet name="ChinaHoliday" sheetId="2" r:id="rId8"/>
+    <sheet name="TaiwanFestival" sheetId="17" r:id="rId9"/>
+    <sheet name="TaiwanHoliday" sheetId="9" r:id="rId10"/>
+    <sheet name="HongKongFestival" sheetId="18" r:id="rId11"/>
+    <sheet name="HongKongHoliday" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="341">
   <si>
     <t>id</t>
   </si>
@@ -924,23 +925,186 @@
   </si>
   <si>
     <t>Cold Food Festival</t>
+  </si>
+  <si>
+    <t>Aquarius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水瓶座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水瓶座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水瓶座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pisces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白羊座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双鱼座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙魚座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牡羊座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牛座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taurus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牛座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙子座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双子座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gemini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙子座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨蟹座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨蟹座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獅子座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virgo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处女座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>處女座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>處女座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天秤座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天秤座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scorpio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天蝎座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天蠍座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天蠍座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sagittarius</t>
+  </si>
+  <si>
+    <t>射手座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射手座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capricorn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩羯座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩羯座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩羯座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -966,7 +1130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1014,20 +1178,23 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1043,7 +1210,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1333,7 +1500,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1342,32 +1509,812 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20">
+        <v>2016</v>
+      </c>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="str">
+        <f>InternationalFestival!D3</f>
+        <v>元旦</v>
+      </c>
+      <c r="C3" s="5">
+        <v>42370</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f>TaiwanFestival!D3</f>
+        <v>中華民國開國紀念日</v>
+      </c>
+      <c r="C4" s="5">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="str">
+        <f>TaiwanFestival!D4</f>
+        <v xml:space="preserve">尾牙 </v>
+      </c>
+      <c r="C5" s="5">
+        <v>42394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f>TaiwanFestival!D5</f>
+        <v xml:space="preserve">農民節 </v>
+      </c>
+      <c r="C6" s="5">
+        <v>42404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="str">
+        <f>LunarFestival!D19</f>
+        <v>除夕</v>
+      </c>
+      <c r="C7" s="5">
+        <v>42407</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>6</v>
+      </c>
+      <c r="B8" s="16" t="str">
+        <f>LunarFestival!D3</f>
+        <v>春節</v>
+      </c>
+      <c r="C8" s="5">
+        <v>42408</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="5">
+        <v>42409</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="5">
+        <v>42410</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="5">
+        <v>42411</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="5">
+        <v>42412</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="5">
+        <v>42399</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f>TaiwanFestival!D6</f>
+        <v>道教節</v>
+      </c>
+      <c r="C14" s="5">
+        <v>42408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f>InternationalFestival!D4</f>
+        <v>情人節</v>
+      </c>
+      <c r="C15" s="5">
+        <v>42414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f>LunarFestival!D4</f>
+        <v>元宵節</v>
+      </c>
+      <c r="C16" s="5">
+        <v>42422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>10</v>
+      </c>
+      <c r="B17" s="16" t="str">
+        <f>TaiwanFestival!D7</f>
+        <v>和平紀念日</v>
+      </c>
+      <c r="C17" s="5">
+        <v>42428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="5">
+        <v>42429</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f>TaiwanFestival!D8</f>
+        <v>童軍節</v>
+      </c>
+      <c r="C19" s="5">
+        <v>42434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>12</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f>InternationalFestival!D5</f>
+        <v>婦女節</v>
+      </c>
+      <c r="C20" s="5">
+        <v>42437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>13</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f>InternationalFestival!D8</f>
+        <v>植樹節</v>
+      </c>
+      <c r="C21" s="5">
+        <v>42441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>14</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f>TaiwanFestival!D9</f>
+        <v>國父逝世紀念日</v>
+      </c>
+      <c r="C22" s="5">
+        <v>42441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>15</v>
+      </c>
+      <c r="B23" s="4" t="str">
+        <f>TaiwanFestival!D10</f>
+        <v>反侵略日</v>
+      </c>
+      <c r="C23" s="5">
+        <v>42443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>16</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <f>TaiwanFestival!D11</f>
+        <v>美術節</v>
+      </c>
+      <c r="C24" s="5">
+        <v>42454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>17</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f>TaiwanFestival!D12</f>
+        <v>革命先烈紀念日</v>
+      </c>
+      <c r="C25" s="5">
+        <v>42458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>18</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <f>InternationalFestival!D12</f>
+        <v>青年節</v>
+      </c>
+      <c r="C26" s="5">
+        <v>42458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>19</v>
+      </c>
+      <c r="B27" s="4" t="str">
+        <f>InternationalFestival!D7</f>
+        <v>愚人節</v>
+      </c>
+      <c r="C27" s="5">
+        <v>42461</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>20</v>
+      </c>
+      <c r="B28" s="4" t="str">
+        <f>TaiwanFestival!D13</f>
+        <v>聯勤節</v>
+      </c>
+      <c r="C28" s="5">
+        <v>42461</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>21</v>
+      </c>
+      <c r="B29" s="4" t="str">
+        <f>TaiwanFestival!D14</f>
+        <v>民族掃墓節</v>
+      </c>
+      <c r="C29" s="5">
+        <v>42464</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <v>22</v>
+      </c>
+      <c r="B30" s="16" t="str">
+        <f>InternationalFestival!D11</f>
+        <v>兒童節</v>
+      </c>
+      <c r="C30" s="5">
+        <v>42464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="5">
+        <v>42465</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>23</v>
+      </c>
+      <c r="B32" s="4" t="str">
+        <f>InternationalFestival!D22</f>
+        <v>媽祖誕辰</v>
+      </c>
+      <c r="C32" s="5">
+        <v>42489</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>24</v>
+      </c>
+      <c r="B33" s="4" t="str">
+        <f>InternationalFestival!D9</f>
+        <v>勞動節</v>
+      </c>
+      <c r="C33" s="5">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>25</v>
+      </c>
+      <c r="B34" s="4" t="str">
+        <f>InternationalFestival!D10</f>
+        <v>母親節</v>
+      </c>
+      <c r="C34" s="5">
+        <v>42498</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>26</v>
+      </c>
+      <c r="B35" s="4" t="str">
+        <f>InternationalFestival!D23</f>
+        <v>佛誕</v>
+      </c>
+      <c r="C35" s="5">
+        <v>42504</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <v>27</v>
+      </c>
+      <c r="B36" s="16" t="str">
+        <f>LunarFestival!D9</f>
+        <v>端午節</v>
+      </c>
+      <c r="C36" s="5">
+        <v>42530</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="5">
+        <v>42531</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="5">
+        <v>42525</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>28</v>
+      </c>
+      <c r="B39" s="4" t="str">
+        <f>TaiwanFestival!D15</f>
+        <v>陸軍節</v>
+      </c>
+      <c r="C39" s="5">
+        <v>42558</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>29</v>
+      </c>
+      <c r="B40" s="4" t="str">
+        <f>TaiwanFestival!D16</f>
+        <v>解嚴紀念日</v>
+      </c>
+      <c r="C40" s="5">
+        <v>42566</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>30</v>
+      </c>
+      <c r="B41" s="4" t="str">
+        <f>InternationalFestival!D13</f>
+        <v>父親節</v>
+      </c>
+      <c r="C41" s="5">
+        <v>42590</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>31</v>
+      </c>
+      <c r="B42" s="4" t="str">
+        <f>LunarFestival!D10</f>
+        <v>七夕</v>
+      </c>
+      <c r="C42" s="5">
+        <v>42591</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>32</v>
+      </c>
+      <c r="B43" s="4" t="str">
+        <f>TaiwanFestival!D17</f>
+        <v>空軍節</v>
+      </c>
+      <c r="C43" s="5">
+        <v>42596</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>33</v>
+      </c>
+      <c r="B44" s="4" t="str">
+        <f>LunarFestival!D11</f>
+        <v>中元節</v>
+      </c>
+      <c r="C44" s="5">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>34</v>
+      </c>
+      <c r="B45" s="4" t="str">
+        <f>TaiwanFestival!D18</f>
+        <v>海軍節</v>
+      </c>
+      <c r="C45" s="5">
+        <v>42615</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>35</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <f>InternationalFestival!D26</f>
+        <v>軍人節</v>
+      </c>
+      <c r="C46" s="5">
+        <v>42616</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
+        <v>36</v>
+      </c>
+      <c r="B47" s="16" t="str">
+        <f>LunarFestival!D13</f>
+        <v>中秋節</v>
+      </c>
+      <c r="C47" s="5">
+        <v>42628</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="5">
+        <v>42629</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="5">
+        <v>42623</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>37</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <f>TaiwanFestival!D19</f>
+        <v>孔子誕辰紀念日</v>
+      </c>
+      <c r="C50" s="5">
+        <v>42641</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>38</v>
+      </c>
+      <c r="B51" s="4" t="str">
+        <f>InternationalFestival!D14</f>
+        <v>教師節</v>
+      </c>
+      <c r="C51" s="5">
+        <v>42641</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>39</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <f>InternationalFestival!D16</f>
+        <v>國慶節</v>
+      </c>
+      <c r="C52" s="5">
+        <v>42653</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>40</v>
+      </c>
+      <c r="B53" s="4" t="str">
+        <f>LunarFestival!D14</f>
+        <v>重陽節</v>
+      </c>
+      <c r="C53" s="5">
+        <v>42652</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>41</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <f>TaiwanFestival!D20</f>
+        <v>華僑節</v>
+      </c>
+      <c r="C54" s="5">
+        <v>42664</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>42</v>
+      </c>
+      <c r="B55" s="4" t="str">
+        <f>TaiwanFestival!D21</f>
+        <v>臺灣聯合國日</v>
+      </c>
+      <c r="C55" s="5">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>43</v>
+      </c>
+      <c r="B56" s="4" t="str">
+        <f>TaiwanFestival!D22</f>
+        <v>臺灣光復節</v>
+      </c>
+      <c r="C56" s="5">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>44</v>
+      </c>
+      <c r="B57" s="4" t="str">
+        <f>TaiwanFestival!D23</f>
+        <v>國父誕辰紀念日</v>
+      </c>
+      <c r="C57" s="5">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>45</v>
+      </c>
+      <c r="B58" s="4" t="str">
+        <f>TaiwanFestival!D24</f>
+        <v>中華文化復興節</v>
+      </c>
+      <c r="C58" s="5">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>46</v>
+      </c>
+      <c r="B59" s="4" t="str">
+        <f>TaiwanFestival!D25</f>
+        <v>憲兵節</v>
+      </c>
+      <c r="C59" s="5">
+        <v>42716</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>47</v>
+      </c>
+      <c r="B60" s="4" t="str">
+        <f>TaiwanFestival!D26</f>
+        <v>行憲紀念日</v>
+      </c>
+      <c r="C60" s="5">
+        <v>42729</v>
+      </c>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>48</v>
+      </c>
+      <c r="B61" s="4" t="str">
+        <f>InternationalFestival!D15</f>
+        <v>平安夜</v>
+      </c>
+      <c r="C61" s="5">
+        <v>42728</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>49</v>
+      </c>
+      <c r="B62" s="4" t="str">
+        <f>InternationalFestival!D17</f>
+        <v>聖誕節</v>
+      </c>
+      <c r="C62" s="5">
+        <v>42729</v>
+      </c>
+      <c r="D62" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B17:B18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="15"/>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
       <c r="B2" s="11" t="s">
         <v>80</v>
       </c>
@@ -1381,7 +2328,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1398,7 +2345,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1415,7 +2362,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1432,7 +2379,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1449,7 +2396,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1466,7 +2413,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1483,7 +2430,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1500,7 +2447,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1522,11 +2469,12 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
@@ -1534,29 +2482,29 @@
       <selection activeCell="E1" sqref="E1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18">
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20">
         <v>2016</v>
       </c>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
         <v>129</v>
       </c>
@@ -1564,7 +2512,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1579,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -1591,7 +2539,7 @@
         <v>42407</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -1606,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -1621,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -1636,7 +2584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -1648,7 +2596,7 @@
         <v>42414</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -1660,7 +2608,7 @@
         <v>42422</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -1672,7 +2620,7 @@
         <v>42437</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -1687,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -1702,7 +2650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -1714,7 +2662,7 @@
         <v>42456</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -1729,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -1741,7 +2689,7 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -1756,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -1768,7 +2716,7 @@
         <v>42489</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -1780,7 +2728,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -1795,7 +2743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -1807,7 +2755,7 @@
         <v>42498</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -1822,7 +2770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -1837,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -1849,7 +2797,7 @@
         <v>42540</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -1864,7 +2812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -1876,7 +2824,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -1888,7 +2836,7 @@
         <v>42628</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -1903,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -1918,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -1930,7 +2878,7 @@
         <v>42652</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -1945,7 +2893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -1957,7 +2905,7 @@
         <v>42728</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="3" customFormat="1">
+    <row r="32" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -1970,7 +2918,7 @@
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -1985,7 +2933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -2014,41 +2962,296 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="8" customWidth="1"/>
     <col min="2" max="2" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17">
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18">
         <v>2015</v>
       </c>
-      <c r="G1" s="17">
+      <c r="G1" s="18">
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
       <c r="B2" s="8" t="s">
         <v>80</v>
       </c>
@@ -2061,10 +3264,10 @@
       <c r="E2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -2087,7 +3290,7 @@
         <v>42375.255555555559</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -2110,7 +3313,7 @@
         <v>42389.977083333331</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1">
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -2133,7 +3336,7 @@
         <v>42404.740277777775</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1">
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -2156,7 +3359,7 @@
         <v>42419.56527777778</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1">
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -2179,7 +3382,7 @@
         <v>42434.488888888889</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -2202,7 +3405,7 @@
         <v>42449.520833333336</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1">
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -2225,7 +3428,7 @@
         <v>42464.686111111114</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1">
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -2248,7 +3451,7 @@
         <v>42479.978472222225</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1">
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -2271,7 +3474,7 @@
         <v>42495.404166666667</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1">
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -2294,7 +3497,7 @@
         <v>42510.941666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1">
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -2317,7 +3520,7 @@
         <v>42526.575694444444</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1">
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -2340,7 +3543,7 @@
         <v>42542.273611111108</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1">
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -2363,7 +3566,7 @@
         <v>42558.002083333333</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1">
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -2386,7 +3589,7 @@
         <v>42573.729166666664</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1">
+    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -2409,7 +3612,7 @@
         <v>42589.411805555559</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1">
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -2432,7 +3635,7 @@
         <v>42605.026388888888</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1">
+    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -2455,7 +3658,7 @@
         <v>42620.535416666666</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1">
+    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -2478,7 +3681,7 @@
         <v>42635.931250000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1">
+    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -2501,7 +3704,7 @@
         <v>42651.189583333333</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1">
+    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -2524,7 +3727,7 @@
         <v>42666.323611111111</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1">
+    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -2547,7 +3750,7 @@
         <v>42681.324999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1">
+    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -2570,7 +3773,7 @@
         <v>42696.223611111112</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1">
+    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -2593,7 +3796,7 @@
         <v>42711.02847222222</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1">
+    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -2629,7 +3832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -2637,14 +3840,14 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2655,7 +3858,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>80</v>
@@ -2670,7 +3873,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2687,7 +3890,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2704,7 +3907,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2722,39 +3925,40 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5" s="9" customFormat="1">
-      <c r="A2" s="15"/>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
       <c r="B2" s="11" t="s">
         <v>80</v>
       </c>
@@ -2768,7 +3972,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2785,7 +3989,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2802,7 +4006,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2819,7 +4023,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2836,7 +4040,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2853,7 +4057,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2870,7 +4074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2887,7 +4091,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2904,7 +4108,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2921,7 +4125,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2938,7 +4142,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2955,7 +4159,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2972,7 +4176,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2989,7 +4193,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3006,7 +4210,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3023,7 +4227,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3040,7 +4244,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3062,12 +4266,13 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -3075,26 +4280,26 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="15"/>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
       <c r="B2" s="8" t="s">
         <v>80</v>
       </c>
@@ -3108,7 +4313,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3125,7 +4330,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3142,7 +4347,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3159,7 +4364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3176,7 +4381,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3193,7 +4398,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3210,7 +4415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3227,7 +4432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3244,7 +4449,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3261,7 +4466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3278,7 +4483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3295,7 +4500,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3312,7 +4517,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3329,7 +4534,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3346,7 +4551,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3363,7 +4568,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3380,7 +4585,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3397,7 +4602,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3414,7 +4619,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3431,7 +4636,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3448,7 +4653,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3465,7 +4670,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3482,7 +4687,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3499,7 +4704,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3521,12 +4726,13 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -3534,26 +4740,26 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="15"/>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
       <c r="B2" s="11" t="s">
         <v>80</v>
       </c>
@@ -3567,7 +4773,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3584,7 +4790,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3601,7 +4807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3618,7 +4824,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3635,7 +4841,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3657,11 +4863,12 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
@@ -3669,29 +4876,29 @@
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18">
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20">
         <v>2016</v>
       </c>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="13" t="s">
         <v>129</v>
       </c>
@@ -3699,7 +4906,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3714,7 +4921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3727,7 +4934,7 @@
       </c>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3740,7 +4947,7 @@
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3753,8 +4960,8 @@
       </c>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
       <c r="B7" s="19" t="str">
@@ -3768,8 +4975,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="15"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
       <c r="B8" s="19"/>
       <c r="C8" s="14">
         <v>42409</v>
@@ -3778,8 +4985,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="15"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
       <c r="B9" s="19"/>
       <c r="C9" s="14">
         <v>42410</v>
@@ -3788,8 +4995,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="15"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
       <c r="B10" s="19"/>
       <c r="C10" s="14">
         <v>42411</v>
@@ -3798,8 +5005,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="15"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
       <c r="B11" s="19"/>
       <c r="C11" s="14">
         <v>42412</v>
@@ -3808,8 +5015,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="15"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
       <c r="B12" s="19"/>
       <c r="C12" s="14">
         <v>42413</v>
@@ -3818,8 +5025,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="15"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
       <c r="B13" s="19"/>
       <c r="C13" s="14">
         <v>42414</v>
@@ -3828,8 +5035,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="15"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
       <c r="B14" s="19"/>
       <c r="C14" s="14">
         <v>42406</v>
@@ -3838,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -3851,7 +5058,7 @@
       </c>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -3864,7 +5071,7 @@
       </c>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -3877,7 +5084,7 @@
       </c>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
@@ -3890,7 +5097,7 @@
       </c>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
@@ -3903,7 +5110,7 @@
       </c>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11</v>
       </c>
@@ -3916,7 +5123,7 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -3929,7 +5136,7 @@
       </c>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>13</v>
       </c>
@@ -3942,7 +5149,7 @@
       </c>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>14</v>
       </c>
@@ -3957,11 +5164,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
         <v>15</v>
       </c>
-      <c r="B24" s="15" t="str">
+      <c r="B24" s="16" t="str">
         <f>InternationalFestival!C9</f>
         <v>劳动节</v>
       </c>
@@ -3970,9 +5177,9 @@
       </c>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="14">
         <v>42492</v>
       </c>
@@ -3980,7 +5187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>16</v>
       </c>
@@ -3993,7 +5200,7 @@
       </c>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>17</v>
       </c>
@@ -4006,7 +5213,7 @@
       </c>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>18</v>
       </c>
@@ -4019,11 +5226,11 @@
       </c>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
         <v>19</v>
       </c>
-      <c r="B29" s="15" t="str">
+      <c r="B29" s="16" t="str">
         <f>LunarFestival!C9</f>
         <v>端午节</v>
       </c>
@@ -4034,9 +5241,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="14">
         <v>42531</v>
       </c>
@@ -4044,9 +5251,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="14">
         <v>42533</v>
       </c>
@@ -4054,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20</v>
       </c>
@@ -4067,7 +5274,7 @@
       </c>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>21</v>
       </c>
@@ -4080,7 +5287,7 @@
       </c>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>22</v>
       </c>
@@ -4093,7 +5300,7 @@
       </c>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>23</v>
       </c>
@@ -4106,7 +5313,7 @@
       </c>
       <c r="D35" s="11"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>24</v>
       </c>
@@ -4119,7 +5326,7 @@
       </c>
       <c r="D36" s="11"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>25</v>
       </c>
@@ -4132,7 +5339,7 @@
       </c>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>26</v>
       </c>
@@ -4145,11 +5352,11 @@
       </c>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
         <v>27</v>
       </c>
-      <c r="B39" s="15" t="str">
+      <c r="B39" s="16" t="str">
         <f>LunarFestival!C13</f>
         <v>中秋节</v>
       </c>
@@ -4160,9 +5367,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="14">
         <v>42629</v>
       </c>
@@ -4170,9 +5377,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="14">
         <v>42631</v>
       </c>
@@ -4180,8 +5387,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
         <v>28</v>
       </c>
       <c r="B42" s="19" t="str">
@@ -4193,8 +5400,8 @@
       </c>
       <c r="D42" s="11"/>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="15"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
       <c r="B43" s="19"/>
       <c r="C43" s="14">
         <v>42646</v>
@@ -4203,8 +5410,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="15"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
       <c r="B44" s="19"/>
       <c r="C44" s="14">
         <v>42647</v>
@@ -4213,8 +5420,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="15"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
       <c r="B45" s="19"/>
       <c r="C45" s="14">
         <v>42648</v>
@@ -4223,8 +5430,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="15"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
       <c r="B46" s="19"/>
       <c r="C46" s="14">
         <v>42649</v>
@@ -4233,8 +5440,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="15"/>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
       <c r="B47" s="19"/>
       <c r="C47" s="14">
         <v>42650</v>
@@ -4243,8 +5450,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="15"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
       <c r="B48" s="19"/>
       <c r="C48" s="14">
         <v>42651</v>
@@ -4253,8 +5460,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="15"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
       <c r="B49" s="19"/>
       <c r="C49" s="14">
         <v>42652</v>
@@ -4263,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>29</v>
       </c>
@@ -4276,7 +5483,7 @@
       </c>
       <c r="D50" s="11"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>30</v>
       </c>
@@ -4289,7 +5496,7 @@
       </c>
       <c r="D51" s="11"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>31</v>
       </c>
@@ -4302,7 +5509,7 @@
       </c>
       <c r="D52" s="11"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>32</v>
       </c>
@@ -4315,7 +5522,7 @@
       </c>
       <c r="D53" s="11"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>33</v>
       </c>
@@ -4328,7 +5535,7 @@
       </c>
       <c r="D54" s="11"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>34</v>
       </c>
@@ -4348,6 +5555,11 @@
     </dataRefs>
   </dataConsolidate>
   <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="A42:A49"/>
     <mergeCell ref="B42:B49"/>
     <mergeCell ref="A7:A14"/>
@@ -4356,11 +5568,6 @@
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4368,7 +5575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -4376,26 +5583,26 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="15"/>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
       <c r="B2" s="11" t="s">
         <v>80</v>
       </c>
@@ -4409,7 +5616,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4426,7 +5633,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4443,7 +5650,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4460,7 +5667,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4477,7 +5684,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4494,7 +5701,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4511,7 +5718,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4528,7 +5735,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4545,7 +5752,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4562,7 +5769,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4579,7 +5786,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4596,7 +5803,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4613,7 +5820,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4630,7 +5837,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4647,7 +5854,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4664,7 +5871,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4681,7 +5888,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4698,7 +5905,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4715,7 +5922,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4732,7 +5939,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4749,7 +5956,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4766,7 +5973,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4783,7 +5990,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4800,7 +6007,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4822,786 +6029,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:I1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18">
-        <v>2016</v>
-      </c>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="15"/>
-      <c r="B2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="str">
-        <f>InternationalFestival!D3</f>
-        <v>元旦</v>
-      </c>
-      <c r="C3" s="5">
-        <v>42370</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="str">
-        <f>TaiwanFestival!D3</f>
-        <v>中華民國開國紀念日</v>
-      </c>
-      <c r="C4" s="5">
-        <v>42370</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="str">
-        <f>TaiwanFestival!D4</f>
-        <v xml:space="preserve">尾牙 </v>
-      </c>
-      <c r="C5" s="5">
-        <v>42394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="str">
-        <f>TaiwanFestival!D5</f>
-        <v xml:space="preserve">農民節 </v>
-      </c>
-      <c r="C6" s="5">
-        <v>42404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="3" customFormat="1">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="str">
-        <f>LunarFestival!D19</f>
-        <v>除夕</v>
-      </c>
-      <c r="C7" s="5">
-        <v>42407</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="15">
-        <v>6</v>
-      </c>
-      <c r="B8" s="15" t="str">
-        <f>LunarFestival!D3</f>
-        <v>春節</v>
-      </c>
-      <c r="C8" s="5">
-        <v>42408</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="5">
-        <v>42409</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="5">
-        <v>42410</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="5">
-        <v>42411</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="5">
-        <v>42412</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="5">
-        <v>42399</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4">
-        <v>7</v>
-      </c>
-      <c r="B14" s="4" t="str">
-        <f>TaiwanFestival!D6</f>
-        <v>道教節</v>
-      </c>
-      <c r="C14" s="5">
-        <v>42408</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4" t="str">
-        <f>InternationalFestival!D4</f>
-        <v>情人節</v>
-      </c>
-      <c r="C15" s="5">
-        <v>42414</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4">
-        <v>9</v>
-      </c>
-      <c r="B16" s="4" t="str">
-        <f>LunarFestival!D4</f>
-        <v>元宵節</v>
-      </c>
-      <c r="C16" s="5">
-        <v>42422</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="15">
-        <v>10</v>
-      </c>
-      <c r="B17" s="15" t="str">
-        <f>TaiwanFestival!D7</f>
-        <v>和平紀念日</v>
-      </c>
-      <c r="C17" s="5">
-        <v>42428</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="5">
-        <v>42429</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4">
-        <v>11</v>
-      </c>
-      <c r="B19" s="4" t="str">
-        <f>TaiwanFestival!D8</f>
-        <v>童軍節</v>
-      </c>
-      <c r="C19" s="5">
-        <v>42434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4">
-        <v>12</v>
-      </c>
-      <c r="B20" s="4" t="str">
-        <f>InternationalFestival!D5</f>
-        <v>婦女節</v>
-      </c>
-      <c r="C20" s="5">
-        <v>42437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4">
-        <v>13</v>
-      </c>
-      <c r="B21" s="4" t="str">
-        <f>InternationalFestival!D8</f>
-        <v>植樹節</v>
-      </c>
-      <c r="C21" s="5">
-        <v>42441</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4">
-        <v>14</v>
-      </c>
-      <c r="B22" s="4" t="str">
-        <f>TaiwanFestival!D9</f>
-        <v>國父逝世紀念日</v>
-      </c>
-      <c r="C22" s="5">
-        <v>42441</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4">
-        <v>15</v>
-      </c>
-      <c r="B23" s="4" t="str">
-        <f>TaiwanFestival!D10</f>
-        <v>反侵略日</v>
-      </c>
-      <c r="C23" s="5">
-        <v>42443</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4">
-        <v>16</v>
-      </c>
-      <c r="B24" s="4" t="str">
-        <f>TaiwanFestival!D11</f>
-        <v>美術節</v>
-      </c>
-      <c r="C24" s="5">
-        <v>42454</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4">
-        <v>17</v>
-      </c>
-      <c r="B25" s="4" t="str">
-        <f>TaiwanFestival!D12</f>
-        <v>革命先烈紀念日</v>
-      </c>
-      <c r="C25" s="5">
-        <v>42458</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4">
-        <v>18</v>
-      </c>
-      <c r="B26" s="4" t="str">
-        <f>InternationalFestival!D12</f>
-        <v>青年節</v>
-      </c>
-      <c r="C26" s="5">
-        <v>42458</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4">
-        <v>19</v>
-      </c>
-      <c r="B27" s="4" t="str">
-        <f>InternationalFestival!D7</f>
-        <v>愚人節</v>
-      </c>
-      <c r="C27" s="5">
-        <v>42461</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="4">
-        <v>20</v>
-      </c>
-      <c r="B28" s="4" t="str">
-        <f>TaiwanFestival!D13</f>
-        <v>聯勤節</v>
-      </c>
-      <c r="C28" s="5">
-        <v>42461</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="4">
-        <v>21</v>
-      </c>
-      <c r="B29" s="4" t="str">
-        <f>TaiwanFestival!D14</f>
-        <v>民族掃墓節</v>
-      </c>
-      <c r="C29" s="5">
-        <v>42464</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="15">
-        <v>22</v>
-      </c>
-      <c r="B30" s="15" t="str">
-        <f>InternationalFestival!D11</f>
-        <v>兒童節</v>
-      </c>
-      <c r="C30" s="5">
-        <v>42464</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="5">
-        <v>42465</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="4">
-        <v>23</v>
-      </c>
-      <c r="B32" s="4" t="str">
-        <f>InternationalFestival!D22</f>
-        <v>媽祖誕辰</v>
-      </c>
-      <c r="C32" s="5">
-        <v>42489</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="4">
-        <v>24</v>
-      </c>
-      <c r="B33" s="4" t="str">
-        <f>InternationalFestival!D9</f>
-        <v>勞動節</v>
-      </c>
-      <c r="C33" s="5">
-        <v>42491</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="4">
-        <v>25</v>
-      </c>
-      <c r="B34" s="4" t="str">
-        <f>InternationalFestival!D10</f>
-        <v>母親節</v>
-      </c>
-      <c r="C34" s="5">
-        <v>42498</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="4">
-        <v>26</v>
-      </c>
-      <c r="B35" s="4" t="str">
-        <f>InternationalFestival!D23</f>
-        <v>佛誕</v>
-      </c>
-      <c r="C35" s="5">
-        <v>42504</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="15">
-        <v>27</v>
-      </c>
-      <c r="B36" s="15" t="str">
-        <f>LunarFestival!D9</f>
-        <v>端午節</v>
-      </c>
-      <c r="C36" s="5">
-        <v>42530</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="5">
-        <v>42531</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="5">
-        <v>42525</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="4">
-        <v>28</v>
-      </c>
-      <c r="B39" s="4" t="str">
-        <f>TaiwanFestival!D15</f>
-        <v>陸軍節</v>
-      </c>
-      <c r="C39" s="5">
-        <v>42558</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="4">
-        <v>29</v>
-      </c>
-      <c r="B40" s="4" t="str">
-        <f>TaiwanFestival!D16</f>
-        <v>解嚴紀念日</v>
-      </c>
-      <c r="C40" s="5">
-        <v>42566</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="4">
-        <v>30</v>
-      </c>
-      <c r="B41" s="4" t="str">
-        <f>InternationalFestival!D13</f>
-        <v>父親節</v>
-      </c>
-      <c r="C41" s="5">
-        <v>42590</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="4">
-        <v>31</v>
-      </c>
-      <c r="B42" s="4" t="str">
-        <f>LunarFestival!D10</f>
-        <v>七夕</v>
-      </c>
-      <c r="C42" s="5">
-        <v>42591</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="4">
-        <v>32</v>
-      </c>
-      <c r="B43" s="4" t="str">
-        <f>TaiwanFestival!D17</f>
-        <v>空軍節</v>
-      </c>
-      <c r="C43" s="5">
-        <v>42596</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="4">
-        <v>33</v>
-      </c>
-      <c r="B44" s="4" t="str">
-        <f>LunarFestival!D11</f>
-        <v>中元節</v>
-      </c>
-      <c r="C44" s="5">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="4">
-        <v>34</v>
-      </c>
-      <c r="B45" s="4" t="str">
-        <f>TaiwanFestival!D18</f>
-        <v>海軍節</v>
-      </c>
-      <c r="C45" s="5">
-        <v>42615</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="4">
-        <v>35</v>
-      </c>
-      <c r="B46" s="4" t="str">
-        <f>InternationalFestival!D26</f>
-        <v>軍人節</v>
-      </c>
-      <c r="C46" s="5">
-        <v>42616</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="15">
-        <v>36</v>
-      </c>
-      <c r="B47" s="15" t="str">
-        <f>LunarFestival!D13</f>
-        <v>中秋節</v>
-      </c>
-      <c r="C47" s="5">
-        <v>42628</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="5">
-        <v>42629</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="5">
-        <v>42623</v>
-      </c>
-      <c r="D49" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="4">
-        <v>37</v>
-      </c>
-      <c r="B50" s="4" t="str">
-        <f>TaiwanFestival!D19</f>
-        <v>孔子誕辰紀念日</v>
-      </c>
-      <c r="C50" s="5">
-        <v>42641</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="4">
-        <v>38</v>
-      </c>
-      <c r="B51" s="4" t="str">
-        <f>InternationalFestival!D14</f>
-        <v>教師節</v>
-      </c>
-      <c r="C51" s="5">
-        <v>42641</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="4">
-        <v>39</v>
-      </c>
-      <c r="B52" s="4" t="str">
-        <f>InternationalFestival!D16</f>
-        <v>國慶節</v>
-      </c>
-      <c r="C52" s="5">
-        <v>42653</v>
-      </c>
-      <c r="D52" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="4">
-        <v>40</v>
-      </c>
-      <c r="B53" s="4" t="str">
-        <f>LunarFestival!D14</f>
-        <v>重陽節</v>
-      </c>
-      <c r="C53" s="5">
-        <v>42652</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="4">
-        <v>41</v>
-      </c>
-      <c r="B54" s="4" t="str">
-        <f>TaiwanFestival!D20</f>
-        <v>華僑節</v>
-      </c>
-      <c r="C54" s="5">
-        <v>42664</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="4">
-        <v>42</v>
-      </c>
-      <c r="B55" s="4" t="str">
-        <f>TaiwanFestival!D21</f>
-        <v>臺灣聯合國日</v>
-      </c>
-      <c r="C55" s="5">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="4">
-        <v>43</v>
-      </c>
-      <c r="B56" s="4" t="str">
-        <f>TaiwanFestival!D22</f>
-        <v>臺灣光復節</v>
-      </c>
-      <c r="C56" s="5">
-        <v>42668</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="4">
-        <v>44</v>
-      </c>
-      <c r="B57" s="4" t="str">
-        <f>TaiwanFestival!D23</f>
-        <v>國父誕辰紀念日</v>
-      </c>
-      <c r="C57" s="5">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="4">
-        <v>45</v>
-      </c>
-      <c r="B58" s="4" t="str">
-        <f>TaiwanFestival!D24</f>
-        <v>中華文化復興節</v>
-      </c>
-      <c r="C58" s="5">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="4">
-        <v>46</v>
-      </c>
-      <c r="B59" s="4" t="str">
-        <f>TaiwanFestival!D25</f>
-        <v>憲兵節</v>
-      </c>
-      <c r="C59" s="5">
-        <v>42716</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="3" customFormat="1">
-      <c r="A60" s="4">
-        <v>47</v>
-      </c>
-      <c r="B60" s="4" t="str">
-        <f>TaiwanFestival!D26</f>
-        <v>行憲紀念日</v>
-      </c>
-      <c r="C60" s="5">
-        <v>42729</v>
-      </c>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="4">
-        <v>48</v>
-      </c>
-      <c r="B61" s="4" t="str">
-        <f>InternationalFestival!D15</f>
-        <v>平安夜</v>
-      </c>
-      <c r="C61" s="5">
-        <v>42728</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="3" customFormat="1">
-      <c r="A62" s="4">
-        <v>49</v>
-      </c>
-      <c r="B62" s="4" t="str">
-        <f>InternationalFestival!D17</f>
-        <v>聖誕節</v>
-      </c>
-      <c r="C62" s="5">
-        <v>42729</v>
-      </c>
-      <c r="D62" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B36:B38"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="764" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="764"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -17,15 +17,15 @@
     <sheet name="ChinaHoliday" sheetId="2" r:id="rId8"/>
     <sheet name="TaiwanFestival" sheetId="17" r:id="rId9"/>
     <sheet name="TaiwanHoliday" sheetId="9" r:id="rId10"/>
-    <sheet name="HongKongFestival" sheetId="18" r:id="rId11"/>
-    <sheet name="HongKongHoliday" sheetId="10" r:id="rId12"/>
+    <sheet name="HongkongFestival" sheetId="18" r:id="rId11"/>
+    <sheet name="HongkongHoliday" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="343">
   <si>
     <t>id</t>
   </si>
@@ -1088,23 +1088,32 @@
   <si>
     <t>摩羯座</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d;@"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1130,7 +1139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1177,11 +1186,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1194,7 +1209,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1210,7 +1225,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1498,9 +1513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1512,31 +1527,31 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:I1048576"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20">
+      <c r="C1" s="22">
         <v>2016</v>
       </c>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="17"/>
       <c r="B2" s="4" t="s">
         <v>82</v>
       </c>
@@ -1547,7 +1562,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1562,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1574,7 +1589,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1586,7 +1601,7 @@
         <v>42394</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1598,7 +1613,7 @@
         <v>42404</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="3" customFormat="1">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1611,11 +1626,11 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+    <row r="8" spans="1:4">
+      <c r="A8" s="17">
         <v>6</v>
       </c>
-      <c r="B8" s="16" t="str">
+      <c r="B8" s="17" t="str">
         <f>LunarFestival!D3</f>
         <v>春節</v>
       </c>
@@ -1626,9 +1641,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="5">
         <v>42409</v>
       </c>
@@ -1636,9 +1651,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+    <row r="10" spans="1:4">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="5">
         <v>42410</v>
       </c>
@@ -1646,9 +1661,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
+    <row r="11" spans="1:4">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="5">
         <v>42411</v>
       </c>
@@ -1656,9 +1671,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
+    <row r="12" spans="1:4">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="5">
         <v>42412</v>
       </c>
@@ -1666,9 +1681,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+    <row r="13" spans="1:4">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="5">
         <v>42399</v>
       </c>
@@ -1676,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="4">
         <v>7</v>
       </c>
@@ -1688,7 +1703,7 @@
         <v>42408</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="4">
         <v>8</v>
       </c>
@@ -1700,7 +1715,7 @@
         <v>42414</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="4">
         <v>9</v>
       </c>
@@ -1712,11 +1727,11 @@
         <v>42422</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+    <row r="17" spans="1:4">
+      <c r="A17" s="17">
         <v>10</v>
       </c>
-      <c r="B17" s="16" t="str">
+      <c r="B17" s="17" t="str">
         <f>TaiwanFestival!D7</f>
         <v>和平紀念日</v>
       </c>
@@ -1724,9 +1739,9 @@
         <v>42428</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
+    <row r="18" spans="1:4">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="5">
         <v>42429</v>
       </c>
@@ -1734,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="4">
         <v>11</v>
       </c>
@@ -1746,7 +1761,7 @@
         <v>42434</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="4">
         <v>12</v>
       </c>
@@ -1758,7 +1773,7 @@
         <v>42437</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="4">
         <v>13</v>
       </c>
@@ -1770,7 +1785,7 @@
         <v>42441</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="4">
         <v>14</v>
       </c>
@@ -1782,7 +1797,7 @@
         <v>42441</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="4">
         <v>15</v>
       </c>
@@ -1794,7 +1809,7 @@
         <v>42443</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="4">
         <v>16</v>
       </c>
@@ -1806,7 +1821,7 @@
         <v>42454</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="4">
         <v>17</v>
       </c>
@@ -1818,7 +1833,7 @@
         <v>42458</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="4">
         <v>18</v>
       </c>
@@ -1830,7 +1845,7 @@
         <v>42458</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="4">
         <v>19</v>
       </c>
@@ -1842,7 +1857,7 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="4">
         <v>20</v>
       </c>
@@ -1854,7 +1869,7 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="4">
         <v>21</v>
       </c>
@@ -1869,11 +1884,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+    <row r="30" spans="1:4">
+      <c r="A30" s="17">
         <v>22</v>
       </c>
-      <c r="B30" s="16" t="str">
+      <c r="B30" s="17" t="str">
         <f>InternationalFestival!D11</f>
         <v>兒童節</v>
       </c>
@@ -1881,9 +1896,9 @@
         <v>42464</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
+    <row r="31" spans="1:4">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="5">
         <v>42465</v>
       </c>
@@ -1891,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="4">
         <v>23</v>
       </c>
@@ -1903,7 +1918,7 @@
         <v>42489</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="4">
         <v>24</v>
       </c>
@@ -1915,7 +1930,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -1927,7 +1942,7 @@
         <v>42498</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="4">
         <v>26</v>
       </c>
@@ -1939,11 +1954,11 @@
         <v>42504</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
+    <row r="36" spans="1:4">
+      <c r="A36" s="17">
         <v>27</v>
       </c>
-      <c r="B36" s="16" t="str">
+      <c r="B36" s="17" t="str">
         <f>LunarFestival!D9</f>
         <v>端午節</v>
       </c>
@@ -1954,9 +1969,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
+    <row r="37" spans="1:4">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="5">
         <v>42531</v>
       </c>
@@ -1964,9 +1979,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
+    <row r="38" spans="1:4">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="5">
         <v>42525</v>
       </c>
@@ -1974,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="4">
         <v>28</v>
       </c>
@@ -1986,7 +2001,7 @@
         <v>42558</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="4">
         <v>29</v>
       </c>
@@ -1998,7 +2013,7 @@
         <v>42566</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="4">
         <v>30</v>
       </c>
@@ -2010,7 +2025,7 @@
         <v>42590</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="4">
         <v>31</v>
       </c>
@@ -2022,7 +2037,7 @@
         <v>42591</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="4">
         <v>32</v>
       </c>
@@ -2034,7 +2049,7 @@
         <v>42596</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="4">
         <v>33</v>
       </c>
@@ -2046,7 +2061,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="4">
         <v>34</v>
       </c>
@@ -2058,7 +2073,7 @@
         <v>42615</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="4">
         <v>35</v>
       </c>
@@ -2070,11 +2085,11 @@
         <v>42616</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="16">
+    <row r="47" spans="1:4">
+      <c r="A47" s="17">
         <v>36</v>
       </c>
-      <c r="B47" s="16" t="str">
+      <c r="B47" s="17" t="str">
         <f>LunarFestival!D13</f>
         <v>中秋節</v>
       </c>
@@ -2085,9 +2100,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
+    <row r="48" spans="1:4">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
       <c r="C48" s="5">
         <v>42629</v>
       </c>
@@ -2095,9 +2110,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
+    <row r="49" spans="1:4">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="5">
         <v>42623</v>
       </c>
@@ -2105,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="4">
         <v>37</v>
       </c>
@@ -2117,7 +2132,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="4">
         <v>38</v>
       </c>
@@ -2129,7 +2144,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="4">
         <v>39</v>
       </c>
@@ -2144,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="4">
         <v>40</v>
       </c>
@@ -2156,7 +2171,7 @@
         <v>42652</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="4">
         <v>41</v>
       </c>
@@ -2168,7 +2183,7 @@
         <v>42664</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="4">
         <v>42</v>
       </c>
@@ -2180,7 +2195,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="4">
         <v>43</v>
       </c>
@@ -2192,7 +2207,7 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="4">
         <v>44</v>
       </c>
@@ -2204,7 +2219,7 @@
         <v>42686</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="4">
         <v>45</v>
       </c>
@@ -2216,7 +2231,7 @@
         <v>42686</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="4">
         <v>46</v>
       </c>
@@ -2228,7 +2243,7 @@
         <v>42716</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" s="3" customFormat="1">
       <c r="A60" s="4">
         <v>47</v>
       </c>
@@ -2241,7 +2256,7 @@
       </c>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="4">
         <v>48</v>
       </c>
@@ -2253,7 +2268,7 @@
         <v>42728</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" s="3" customFormat="1">
       <c r="A62" s="4">
         <v>49</v>
       </c>
@@ -2295,26 +2310,26 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="17"/>
       <c r="B2" s="11" t="s">
         <v>80</v>
       </c>
@@ -2328,7 +2343,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2345,7 +2360,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2362,7 +2377,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2379,7 +2394,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2396,7 +2411,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2413,7 +2428,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2430,7 +2445,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2447,7 +2462,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2482,29 +2497,29 @@
       <selection activeCell="E1" sqref="E1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20">
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22">
         <v>2016</v>
       </c>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="5" t="s">
         <v>129</v>
       </c>
@@ -2512,7 +2527,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2527,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -2539,7 +2554,7 @@
         <v>42407</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -2554,12 +2569,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="11">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="str">
-        <f>HongKongFestival!E3</f>
+        <f>HongkongFestival!E3</f>
         <v>農曆年初二</v>
       </c>
       <c r="C6" s="5">
@@ -2569,12 +2584,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="11">
         <v>5</v>
       </c>
       <c r="B7" s="11" t="str">
-        <f>HongKongFestival!E4</f>
+        <f>HongkongFestival!E4</f>
         <v>農曆年初三</v>
       </c>
       <c r="C7" s="5">
@@ -2584,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -2596,7 +2611,7 @@
         <v>42414</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -2608,7 +2623,7 @@
         <v>42422</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -2620,7 +2635,7 @@
         <v>42437</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -2635,7 +2650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -2650,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -2662,7 +2677,7 @@
         <v>42456</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -2677,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -2689,7 +2704,7 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -2704,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -2716,7 +2731,7 @@
         <v>42489</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -2728,12 +2743,12 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="11">
         <v>17</v>
       </c>
       <c r="B19" s="11" t="str">
-        <f>HongKongFestival!E5</f>
+        <f>HongkongFestival!E5</f>
         <v>勞動節翌日</v>
       </c>
       <c r="C19" s="5">
@@ -2743,7 +2758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -2755,7 +2770,7 @@
         <v>42498</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -2770,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -2785,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -2797,12 +2812,12 @@
         <v>42540</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="11">
         <v>22</v>
       </c>
       <c r="B24" s="11" t="str">
-        <f>HongKongFestival!E6</f>
+        <f>HongkongFestival!E6</f>
         <v>香港特別行政區成立紀念日</v>
       </c>
       <c r="C24" s="5">
@@ -2812,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -2824,7 +2839,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -2836,12 +2851,12 @@
         <v>42628</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="11">
         <v>25</v>
       </c>
       <c r="B27" s="11" t="str">
-        <f>HongKongFestival!E7</f>
+        <f>HongkongFestival!E7</f>
         <v>中秋節翌日</v>
       </c>
       <c r="C27" s="5">
@@ -2851,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -2866,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -2878,12 +2893,12 @@
         <v>42652</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="11">
         <v>28</v>
       </c>
       <c r="B30" s="11" t="str">
-        <f>HongKongFestival!E8</f>
+        <f>HongkongFestival!E8</f>
         <v>重陽節翌日</v>
       </c>
       <c r="C30" s="5">
@@ -2893,7 +2908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -2905,7 +2920,7 @@
         <v>42728</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" s="3" customFormat="1">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -2918,12 +2933,12 @@
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="11">
         <v>31</v>
       </c>
       <c r="B33" s="11" t="str">
-        <f>HongKongFestival!E9</f>
+        <f>HongkongFestival!E9</f>
         <v>聖誕節後第一個周日</v>
       </c>
       <c r="C33" s="5">
@@ -2933,12 +2948,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="11">
         <v>32</v>
       </c>
       <c r="B34" s="11" t="str">
-        <f>HongKongFestival!E10</f>
+        <f>HongkongFestival!E10</f>
         <v>聖誕節後第二個周日</v>
       </c>
       <c r="C34" s="5">
@@ -2962,31 +2977,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.85546875" style="3"/>
+    <col min="6" max="7" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="17"/>
       <c r="B2" s="15" t="s">
         <v>80</v>
       </c>
@@ -2999,8 +3021,10 @@
       <c r="E2" s="15" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3016,8 +3040,14 @@
       <c r="E3" s="3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="16">
+        <v>42389</v>
+      </c>
+      <c r="G3" s="16">
+        <v>42418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3033,8 +3063,14 @@
       <c r="E4" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="16">
+        <v>42418</v>
+      </c>
+      <c r="G4" s="16">
+        <v>42449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3050,8 +3086,14 @@
       <c r="E5" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="16">
+        <v>42450</v>
+      </c>
+      <c r="G5" s="16">
+        <v>42479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3067,8 +3109,14 @@
       <c r="E6" s="3" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="16">
+        <v>42480</v>
+      </c>
+      <c r="G6" s="16">
+        <v>42510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3084,8 +3132,14 @@
       <c r="E7" s="3" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="16">
+        <v>42511</v>
+      </c>
+      <c r="G7" s="16">
+        <v>42542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3101,8 +3155,14 @@
       <c r="E8" s="3" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="16">
+        <v>42543</v>
+      </c>
+      <c r="G8" s="16">
+        <v>42573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3118,8 +3178,14 @@
       <c r="E9" s="3" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="16">
+        <v>42574</v>
+      </c>
+      <c r="G9" s="16">
+        <v>42604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3135,8 +3201,14 @@
       <c r="E10" s="3" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="16">
+        <v>42605</v>
+      </c>
+      <c r="G10" s="16">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3152,8 +3224,14 @@
       <c r="E11" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="16">
+        <v>42636</v>
+      </c>
+      <c r="G11" s="16">
+        <v>42665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3169,8 +3247,14 @@
       <c r="E12" s="3" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="16">
+        <v>42666</v>
+      </c>
+      <c r="G12" s="16">
+        <v>42695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3186,8 +3270,14 @@
       <c r="E13" s="3" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="16">
+        <v>42696</v>
+      </c>
+      <c r="G13" s="16">
+        <v>42725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3203,11 +3293,19 @@
       <c r="E14" s="3" t="s">
         <v>340</v>
       </c>
+      <c r="F14" s="16">
+        <v>42726</v>
+      </c>
+      <c r="G14" s="16">
+        <v>42388</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3223,35 +3321,35 @@
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="8" customWidth="1"/>
     <col min="2" max="2" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18">
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="20">
         <v>2015</v>
       </c>
-      <c r="G1" s="18">
+      <c r="G1" s="20">
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+    <row r="2" spans="1:7" s="1" customFormat="1">
+      <c r="A2" s="17"/>
       <c r="B2" s="8" t="s">
         <v>80</v>
       </c>
@@ -3264,10 +3362,10 @@
       <c r="E2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -3290,7 +3388,7 @@
         <v>42375.255555555559</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="1" customFormat="1">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -3313,7 +3411,7 @@
         <v>42389.977083333331</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="1" customFormat="1">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -3336,7 +3434,7 @@
         <v>42404.740277777775</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="1" customFormat="1">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -3359,7 +3457,7 @@
         <v>42419.56527777778</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="1" customFormat="1">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -3382,7 +3480,7 @@
         <v>42434.488888888889</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -3405,7 +3503,7 @@
         <v>42449.520833333336</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="1" customFormat="1">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -3428,7 +3526,7 @@
         <v>42464.686111111114</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="1" customFormat="1">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -3451,7 +3549,7 @@
         <v>42479.978472222225</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="1" customFormat="1">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -3474,7 +3572,7 @@
         <v>42495.404166666667</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="1" customFormat="1">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -3497,7 +3595,7 @@
         <v>42510.941666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="1" customFormat="1">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -3520,7 +3618,7 @@
         <v>42526.575694444444</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -3543,7 +3641,7 @@
         <v>42542.273611111108</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="1" customFormat="1">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -3566,7 +3664,7 @@
         <v>42558.002083333333</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="1" customFormat="1">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -3589,7 +3687,7 @@
         <v>42573.729166666664</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="1" customFormat="1">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -3612,7 +3710,7 @@
         <v>42589.411805555559</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="1" customFormat="1">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -3635,7 +3733,7 @@
         <v>42605.026388888888</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="1" customFormat="1">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -3658,7 +3756,7 @@
         <v>42620.535416666666</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="1" customFormat="1">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -3681,7 +3779,7 @@
         <v>42635.931250000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="1" customFormat="1">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -3704,7 +3802,7 @@
         <v>42651.189583333333</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="1" customFormat="1">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -3727,7 +3825,7 @@
         <v>42666.323611111111</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="1" customFormat="1">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -3750,7 +3848,7 @@
         <v>42681.324999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="1" customFormat="1">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -3773,7 +3871,7 @@
         <v>42696.223611111112</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="1" customFormat="1">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -3796,7 +3894,7 @@
         <v>42711.02847222222</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="1" customFormat="1">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -3840,14 +3938,14 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3858,7 +3956,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>80</v>
@@ -3873,7 +3971,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3890,7 +3988,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3907,7 +4005,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3938,27 +4036,27 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:5" s="9" customFormat="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" s="9" customFormat="1">
+      <c r="A2" s="17"/>
       <c r="B2" s="11" t="s">
         <v>80</v>
       </c>
@@ -3972,7 +4070,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3989,7 +4087,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4006,7 +4104,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4023,7 +4121,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4040,7 +4138,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4057,7 +4155,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4074,7 +4172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4091,7 +4189,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4108,7 +4206,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4125,7 +4223,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4142,7 +4240,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4159,7 +4257,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4176,7 +4274,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4193,7 +4291,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4210,7 +4308,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4227,7 +4325,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4244,7 +4342,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4277,29 +4375,29 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="17"/>
       <c r="B2" s="8" t="s">
         <v>80</v>
       </c>
@@ -4313,7 +4411,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4330,7 +4428,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4347,7 +4445,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4364,7 +4462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4381,7 +4479,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4398,7 +4496,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4415,7 +4513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4432,7 +4530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4449,7 +4547,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4466,7 +4564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4483,7 +4581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4500,7 +4598,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4517,7 +4615,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4534,7 +4632,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4551,7 +4649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4568,7 +4666,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4585,7 +4683,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4602,7 +4700,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4619,7 +4717,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4636,7 +4734,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4653,7 +4751,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4670,7 +4768,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4687,7 +4785,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4704,7 +4802,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4740,26 +4838,26 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="17"/>
       <c r="B2" s="11" t="s">
         <v>80</v>
       </c>
@@ -4773,7 +4871,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4790,7 +4888,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4807,7 +4905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4824,7 +4922,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4841,7 +4939,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4872,33 +4970,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20">
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22">
         <v>2016</v>
       </c>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="13" t="s">
         <v>129</v>
       </c>
@@ -4906,7 +5004,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4921,7 +5019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4934,7 +5032,7 @@
       </c>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4947,7 +5045,7 @@
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4960,11 +5058,11 @@
       </c>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+    <row r="7" spans="1:4">
+      <c r="A7" s="17">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="str">
+      <c r="B7" s="21" t="str">
         <f>LunarFestival!C3</f>
         <v>春节</v>
       </c>
@@ -4975,9 +5073,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="19"/>
+    <row r="8" spans="1:4">
+      <c r="A8" s="17"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="14">
         <v>42409</v>
       </c>
@@ -4985,9 +5083,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="19"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="17"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="14">
         <v>42410</v>
       </c>
@@ -4995,9 +5093,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="19"/>
+    <row r="10" spans="1:4">
+      <c r="A10" s="17"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="14">
         <v>42411</v>
       </c>
@@ -5005,9 +5103,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="19"/>
+    <row r="11" spans="1:4">
+      <c r="A11" s="17"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="14">
         <v>42412</v>
       </c>
@@ -5015,9 +5113,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="19"/>
+    <row r="12" spans="1:4">
+      <c r="A12" s="17"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="14">
         <v>42413</v>
       </c>
@@ -5025,9 +5123,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="19"/>
+    <row r="13" spans="1:4">
+      <c r="A13" s="17"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="14">
         <v>42414</v>
       </c>
@@ -5035,9 +5133,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="19"/>
+    <row r="14" spans="1:4">
+      <c r="A14" s="17"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="14">
         <v>42406</v>
       </c>
@@ -5045,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>6</v>
       </c>
@@ -5058,7 +5156,7 @@
       </c>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>7</v>
       </c>
@@ -5071,7 +5169,7 @@
       </c>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>8</v>
       </c>
@@ -5084,7 +5182,7 @@
       </c>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>9</v>
       </c>
@@ -5097,7 +5195,7 @@
       </c>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>10</v>
       </c>
@@ -5110,7 +5208,7 @@
       </c>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>11</v>
       </c>
@@ -5123,7 +5221,7 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>12</v>
       </c>
@@ -5136,7 +5234,7 @@
       </c>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>13</v>
       </c>
@@ -5149,7 +5247,7 @@
       </c>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>14</v>
       </c>
@@ -5164,11 +5262,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+    <row r="24" spans="1:4">
+      <c r="A24" s="17">
         <v>15</v>
       </c>
-      <c r="B24" s="16" t="str">
+      <c r="B24" s="17" t="str">
         <f>InternationalFestival!C9</f>
         <v>劳动节</v>
       </c>
@@ -5177,9 +5275,9 @@
       </c>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+    <row r="25" spans="1:4">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="14">
         <v>42492</v>
       </c>
@@ -5187,7 +5285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>16</v>
       </c>
@@ -5200,7 +5298,7 @@
       </c>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>17</v>
       </c>
@@ -5213,7 +5311,7 @@
       </c>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>18</v>
       </c>
@@ -5226,11 +5324,11 @@
       </c>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+    <row r="29" spans="1:4">
+      <c r="A29" s="17">
         <v>19</v>
       </c>
-      <c r="B29" s="16" t="str">
+      <c r="B29" s="17" t="str">
         <f>LunarFestival!C9</f>
         <v>端午节</v>
       </c>
@@ -5241,9 +5339,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
+    <row r="30" spans="1:4">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="14">
         <v>42531</v>
       </c>
@@ -5251,9 +5349,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
+    <row r="31" spans="1:4">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="14">
         <v>42533</v>
       </c>
@@ -5261,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>20</v>
       </c>
@@ -5274,7 +5372,7 @@
       </c>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>21</v>
       </c>
@@ -5287,7 +5385,7 @@
       </c>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>22</v>
       </c>
@@ -5300,7 +5398,7 @@
       </c>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>23</v>
       </c>
@@ -5313,7 +5411,7 @@
       </c>
       <c r="D35" s="11"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>24</v>
       </c>
@@ -5326,7 +5424,7 @@
       </c>
       <c r="D36" s="11"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>25</v>
       </c>
@@ -5339,7 +5437,7 @@
       </c>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>26</v>
       </c>
@@ -5352,11 +5450,11 @@
       </c>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+    <row r="39" spans="1:4">
+      <c r="A39" s="17">
         <v>27</v>
       </c>
-      <c r="B39" s="16" t="str">
+      <c r="B39" s="17" t="str">
         <f>LunarFestival!C13</f>
         <v>中秋节</v>
       </c>
@@ -5367,9 +5465,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
+    <row r="40" spans="1:4">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="14">
         <v>42629</v>
       </c>
@@ -5377,9 +5475,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
+    <row r="41" spans="1:4">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="14">
         <v>42631</v>
       </c>
@@ -5387,11 +5485,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+    <row r="42" spans="1:4">
+      <c r="A42" s="17">
         <v>28</v>
       </c>
-      <c r="B42" s="19" t="str">
+      <c r="B42" s="21" t="str">
         <f>InternationalFestival!C16</f>
         <v>国庆节</v>
       </c>
@@ -5400,9 +5498,9 @@
       </c>
       <c r="D42" s="11"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="19"/>
+    <row r="43" spans="1:4">
+      <c r="A43" s="17"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="14">
         <v>42646</v>
       </c>
@@ -5410,9 +5508,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="19"/>
+    <row r="44" spans="1:4">
+      <c r="A44" s="17"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="14">
         <v>42647</v>
       </c>
@@ -5420,9 +5518,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="19"/>
+    <row r="45" spans="1:4">
+      <c r="A45" s="17"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="14">
         <v>42648</v>
       </c>
@@ -5430,9 +5528,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="19"/>
+    <row r="46" spans="1:4">
+      <c r="A46" s="17"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="14">
         <v>42649</v>
       </c>
@@ -5440,9 +5538,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="19"/>
+    <row r="47" spans="1:4">
+      <c r="A47" s="17"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="14">
         <v>42650</v>
       </c>
@@ -5450,9 +5548,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="19"/>
+    <row r="48" spans="1:4">
+      <c r="A48" s="17"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="14">
         <v>42651</v>
       </c>
@@ -5460,9 +5558,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="19"/>
+    <row r="49" spans="1:4">
+      <c r="A49" s="17"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="14">
         <v>42652</v>
       </c>
@@ -5470,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>29</v>
       </c>
@@ -5483,7 +5581,7 @@
       </c>
       <c r="D50" s="11"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>30</v>
       </c>
@@ -5496,7 +5594,7 @@
       </c>
       <c r="D51" s="11"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>31</v>
       </c>
@@ -5509,7 +5607,7 @@
       </c>
       <c r="D52" s="11"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>32</v>
       </c>
@@ -5522,7 +5620,7 @@
       </c>
       <c r="D53" s="11"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>33</v>
       </c>
@@ -5535,7 +5633,7 @@
       </c>
       <c r="D54" s="11"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>34</v>
       </c>
@@ -5583,26 +5681,26 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="17"/>
       <c r="B2" s="11" t="s">
         <v>80</v>
       </c>
@@ -5616,7 +5714,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5633,7 +5731,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5650,7 +5748,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5667,7 +5765,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5684,7 +5782,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5701,7 +5799,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5718,7 +5816,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5735,7 +5833,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5752,7 +5850,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5769,7 +5867,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5786,7 +5884,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5803,7 +5901,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5820,7 +5918,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5837,7 +5935,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5854,7 +5952,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5871,7 +5969,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5888,7 +5986,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5905,7 +6003,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5922,7 +6020,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5939,7 +6037,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5956,7 +6054,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5973,7 +6071,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5990,7 +6088,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>23</v>
       </c>
@@ -6007,7 +6105,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>24</v>
       </c>
